--- a/backlogfinito.xlsx
+++ b/backlogfinito.xlsx
@@ -1,47 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\efras\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5227523-6871-4F01-84FF-5F5AF2BA995A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95D4183-CA60-404A-9409-48A25D486C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="833" firstSheet="19" activeTab="24" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="833" firstSheet="22" activeTab="28" xr2:uid="{719016E5-AE26-4BAA-BABB-F43F55BF4197}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="DIagrama" sheetId="2" r:id="rId2"/>
-    <sheet name="Comienzo del repositorio" sheetId="3" r:id="rId3"/>
-    <sheet name="Recolección de requisitos" sheetId="4" r:id="rId4"/>
-    <sheet name="Análisis de viabilidad" sheetId="5" r:id="rId5"/>
-    <sheet name="Asignación de tareas" sheetId="7" r:id="rId6"/>
+    <sheet name="Hoja1" sheetId="30" r:id="rId2"/>
+    <sheet name="DIagrama" sheetId="2" r:id="rId3"/>
+    <sheet name="Comienzo del repositorio" sheetId="3" r:id="rId4"/>
+    <sheet name="Recolección de requisitos" sheetId="4" r:id="rId5"/>
+    <sheet name="Análisis de viabilidad" sheetId="5" r:id="rId6"/>
     <sheet name="Asignación de roles" sheetId="6" r:id="rId7"/>
-    <sheet name="Diseño UI UX" sheetId="8" r:id="rId8"/>
-    <sheet name="Creación de mock-ups" sheetId="9" r:id="rId9"/>
-    <sheet name="Mock-up presentación" sheetId="10" r:id="rId10"/>
-    <sheet name=" Mock-up 8 modelos de cv" sheetId="11" r:id="rId11"/>
-    <sheet name="Mock-up rellenado de cv" sheetId="12" r:id="rId12"/>
-    <sheet name="Mock-up descarga" sheetId="13" r:id="rId13"/>
-    <sheet name="Creación y definición de estilo" sheetId="14" r:id="rId14"/>
-    <sheet name="Arquitectura de software" sheetId="15" r:id="rId15"/>
-    <sheet name="Creación a base de carpetas" sheetId="16" r:id="rId16"/>
-    <sheet name="Definición de clases y funcione" sheetId="17" r:id="rId17"/>
-    <sheet name="Frontend" sheetId="18" r:id="rId18"/>
-    <sheet name="Creación de pantallas" sheetId="19" r:id="rId19"/>
-    <sheet name="Bienvenida" sheetId="20" r:id="rId20"/>
-    <sheet name="muestra de los 8 diseños" sheetId="21" r:id="rId21"/>
-    <sheet name="Formulario de llenado" sheetId="22" r:id="rId22"/>
-    <sheet name="Descarga Lista" sheetId="23" r:id="rId23"/>
-    <sheet name="Añadir logica" sheetId="24" r:id="rId24"/>
-    <sheet name="Unitarias" sheetId="25" r:id="rId25"/>
-    <sheet name="Usuario" sheetId="26" r:id="rId26"/>
-    <sheet name="Seguridad" sheetId="27" r:id="rId27"/>
-    <sheet name="Producción" sheetId="28" r:id="rId28"/>
-    <sheet name="Crear documentación" sheetId="29" r:id="rId29"/>
+    <sheet name="Asignación de tareas" sheetId="7" r:id="rId8"/>
+    <sheet name="Diseño UI UX" sheetId="8" r:id="rId9"/>
+    <sheet name="Creación de mock-ups" sheetId="9" r:id="rId10"/>
+    <sheet name="Mock-up presentación" sheetId="10" r:id="rId11"/>
+    <sheet name=" Mock-up 8 modelos de cv" sheetId="11" r:id="rId12"/>
+    <sheet name="Mock-up rellenado de cv" sheetId="12" r:id="rId13"/>
+    <sheet name="Mock-up descarga" sheetId="13" r:id="rId14"/>
+    <sheet name="Creación y definición de estilo" sheetId="14" r:id="rId15"/>
+    <sheet name="Arquitectura de software" sheetId="15" r:id="rId16"/>
+    <sheet name="Creación a base de carpetas" sheetId="16" r:id="rId17"/>
+    <sheet name="Definición de clases y funcione" sheetId="17" r:id="rId18"/>
+    <sheet name="Frontend" sheetId="18" r:id="rId19"/>
+    <sheet name="Creación de pantallas" sheetId="19" r:id="rId20"/>
+    <sheet name="Bienvenida" sheetId="20" r:id="rId21"/>
+    <sheet name="muestra de los 8 diseños" sheetId="21" r:id="rId22"/>
+    <sheet name="Formulario de llenado" sheetId="22" r:id="rId23"/>
+    <sheet name="Descarga Lista" sheetId="23" r:id="rId24"/>
+    <sheet name="Añadir logica" sheetId="24" r:id="rId25"/>
+    <sheet name="Unitarias" sheetId="25" r:id="rId26"/>
+    <sheet name="Usuario" sheetId="26" r:id="rId27"/>
+    <sheet name="Seguridad" sheetId="27" r:id="rId28"/>
+    <sheet name="Producción" sheetId="28" r:id="rId29"/>
+    <sheet name="Crear documentación" sheetId="29" r:id="rId30"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="300">
   <si>
     <t>1. Planificación</t>
   </si>
@@ -993,15 +994,6 @@
     <t>Estimado en 32 horas de trabajo, tarifa aprox ($150.00 mxn la hora)</t>
   </si>
   <si>
-    <t>14/07/2025</t>
-  </si>
-  <si>
-    <t>16/07/2025</t>
-  </si>
-  <si>
-    <t>17/05/2025</t>
-  </si>
-  <si>
     <t>18/05/2025</t>
   </si>
   <si>
@@ -1012,6 +1004,12 @@
   </si>
   <si>
     <t>31/05/2025</t>
+  </si>
+  <si>
+    <t>Andrés</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1017,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -1038,7 +1036,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1078,6 +1076,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1234,7 +1238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1265,11 +1269,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1310,6 +1314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4459,7 +4464,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B05EE2-DDEB-4741-930D-5DBA947EFDEB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9717ACB-0B5A-4FF1-921F-E01C4F3DFAF1}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4478,7 +4483,7 @@
             <xdr:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B05EE2-DDEB-4741-930D-5DBA947EFDEB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9717ACB-0B5A-4FF1-921F-E01C4F3DFAF1}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4524,7 +4529,7 @@
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C3F538-16EE-42C6-B20A-321521F9D696}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EF97BE-1B12-4366-AE0F-0930BA873EB8}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4594,7 +4599,7 @@
             <xdr14:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9717ACB-0B5A-4FF1-921F-E01C4F3DFAF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B05EE2-DDEB-4741-930D-5DBA947EFDEB}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -4613,7 +4618,7 @@
             <xdr:cNvPr id="2" name="Entrada de lápiz 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9717ACB-0B5A-4FF1-921F-E01C4F3DFAF1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1B05EE2-DDEB-4741-930D-5DBA947EFDEB}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4659,7 +4664,7 @@
             <xdr14:cNvPr id="3" name="Entrada de lápiz 2">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39EF97BE-1B12-4366-AE0F-0930BA873EB8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C3F538-16EE-42C6-B20A-321521F9D696}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -5155,7 +5160,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:00.345"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:22:58.228"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5182,7 +5187,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:19.609"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:18.411"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5209,7 +5214,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:22:58.228"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:23:00.345"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -5236,7 +5241,7 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:18.411"/>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-03T23:31:19.609"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.035" units="cm"/>
@@ -6932,182 +6937,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A2A722B-616E-4DB3-BF2C-2A33C79EA3D9}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+      <c r="B26" s="29"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="29"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -7125,6 +7156,217 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EA59EA-F891-41D6-B791-CCCE95DA6C21}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45855</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB009B5F-CFA5-40C7-B7C8-CBDD8E6B383C}">
   <dimension ref="A2:K18"/>
   <sheetViews>
@@ -7132,13 +7374,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7164,7 +7406,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>9</v>
       </c>
@@ -7181,14 +7423,14 @@
       <c r="F3" s="4">
         <v>45796</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>295</v>
+      <c r="G3" s="4">
+        <v>45855</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -7205,7 +7447,7 @@
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -7222,58 +7464,58 @@
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -7290,24 +7532,24 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -7320,7 +7562,7 @@
       <c r="J14" s="20"/>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -7337,7 +7579,7 @@
       <c r="J15" s="17"/>
       <c r="K15" s="18"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7362,7 +7604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB1CB2FE-CAEB-4D86-A4D5-61A45D0E435A}">
   <dimension ref="A2:H18"/>
   <sheetViews>
@@ -7370,13 +7612,13 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7402,7 +7644,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>10</v>
       </c>
@@ -7419,14 +7661,14 @@
       <c r="F3" s="4">
         <v>45796</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>296</v>
+      <c r="G3" s="4">
+        <v>45855</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -7440,7 +7682,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -7454,7 +7696,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -7468,7 +7710,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -7482,7 +7724,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -7496,7 +7738,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -7510,7 +7752,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
@@ -7524,7 +7766,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7534,7 +7776,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -7548,220 +7790,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F8BFA-32B2-45F8-8A47-5FBDD6265581}">
-  <dimension ref="A2:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45811</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
-        <v>45796</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13">
-        <v>3</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="13">
-        <v>300</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7787,19 +7816,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA33F1-5BDE-4D44-8A9A-B5CD2ECCA57D}">
-  <dimension ref="A2:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F1F8BFA-32B2-45F8-8A47-5FBDD6265581}">
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -7825,15 +7855,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -7842,262 +7872,47 @@
       <c r="F3" s="4">
         <v>45796</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>296</v>
+      <c r="G3" s="4">
+        <v>45855</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B7" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="27"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B8" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="27"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="27"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="27"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="27"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>194</v>
-      </c>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="27"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="27"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="23">
-        <v>500</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="27"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="B9:I9"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B14:I14"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAE69C-D455-4EA8-92F9-B7DCF7E9CA08}">
-  <dimension ref="A2:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45811</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
-        <v>45796</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="B9" s="13" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -8106,12 +7921,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>154</v>
+      <c r="B10" s="13" t="s">
+        <v>184</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -8120,12 +7935,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -8134,12 +7949,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>156</v>
+      <c r="B12" s="13">
+        <v>3</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -8148,12 +7963,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>157</v>
+      <c r="B13" s="15" t="s">
+        <v>186</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8162,10 +7977,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -8174,12 +7989,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>159</v>
+      <c r="B15" s="13">
+        <v>300</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -8188,7 +8003,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8213,17 +8028,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3701D73E-13F5-46DF-B190-522CA31E4294}">
-  <dimension ref="A2:H18"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72FA33F1-5BDE-4D44-8A9A-B5CD2ECCA57D}">
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8249,15 +8067,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -8266,19 +8084,234 @@
       <c r="F3" s="4">
         <v>45796</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>298</v>
+      <c r="G3" s="4">
+        <v>45855</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="27"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="27"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="27"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="27"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="27"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="27"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="23">
+        <v>500</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B14:I14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FABAE69C-D455-4EA8-92F9-B7DCF7E9CA08}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="B7" s="13" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -8287,12 +8320,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -8301,12 +8334,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -8315,12 +8348,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>163</v>
+      <c r="B10" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -8329,12 +8362,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -8343,12 +8376,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -8357,12 +8390,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8371,10 +8404,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -8383,12 +8416,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -8397,7 +8430,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8423,16 +8456,16 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51159017-CBB6-4418-804B-80045A083060}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3701D73E-13F5-46DF-B190-522CA31E4294}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8458,15 +8491,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -8476,18 +8509,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>221</v>
+        <v>160</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -8496,12 +8529,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>222</v>
+        <v>161</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -8510,12 +8543,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>223</v>
+        <v>162</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -8524,12 +8557,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -8538,12 +8571,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -8552,12 +8585,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -8566,12 +8599,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>226</v>
+      <c r="B13" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8580,9 +8613,11 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13"/>
+      <c r="B14" s="13" t="s">
+        <v>167</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -8590,12 +8625,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -8604,7 +8639,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8630,16 +8665,16 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CDE9E1-1FB1-4228-B864-A7CE004E1F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51159017-CBB6-4418-804B-80045A083060}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8665,15 +8700,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -8683,18 +8718,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -8703,12 +8738,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -8717,12 +8752,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -8731,12 +8766,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -8745,7 +8780,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -8759,12 +8794,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -8773,12 +8808,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>232</v>
+      <c r="B13" s="15" t="s">
+        <v>226</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8787,7 +8822,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -8797,7 +8832,7 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
@@ -8811,7 +8846,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -8837,16 +8872,16 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA6DED2-231E-4E0B-B413-60D7A18CB692}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CDE9E1-1FB1-4228-B864-A7CE004E1F4B}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -8872,15 +8907,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -8889,19 +8924,19 @@
       <c r="F3" s="4">
         <v>45796</v>
       </c>
-      <c r="G3" s="4">
-        <v>45785</v>
+      <c r="G3" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -8910,12 +8945,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -8924,12 +8959,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -8938,12 +8973,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -8952,12 +8987,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -8966,12 +9001,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>238</v>
+        <v>63</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -8980,12 +9015,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>239</v>
+      <c r="B13" s="15" t="s">
+        <v>232</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -8994,7 +9029,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9004,12 +9039,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -9018,7 +9053,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9044,16 +9079,16 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E34D016-1358-4821-966C-2F100ECA28EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA6DED2-231E-4E0B-B413-60D7A18CB692}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9079,15 +9114,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -9097,18 +9132,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45816</v>
+        <v>45861</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -9117,12 +9152,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -9131,12 +9166,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -9145,12 +9180,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -9159,7 +9194,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -9173,12 +9208,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -9187,12 +9222,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>245</v>
+      <c r="B13" s="15" t="s">
+        <v>239</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -9201,7 +9236,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9211,12 +9246,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -9225,7 +9260,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9251,22 +9286,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7E720-EBBA-4D65-A776-85CAAE60A77B}">
-  <dimension ref="A2:I20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB833FFB-937D-49DD-BF0C-59AB751EF5E5}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E34D016-1358-4821-966C-2F100ECA28EA}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="3" max="3" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9292,52 +9333,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>62</v>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D3" s="4">
-        <f>DATE(2025,5,28)</f>
-        <v>45805</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45880</v>
+        <v>45861</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>53</v>
+        <v>241</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -9346,12 +9371,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>55</v>
+        <v>242</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -9360,12 +9385,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -9374,12 +9399,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -9388,12 +9413,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -9402,12 +9427,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -9416,12 +9441,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>59</v>
+      <c r="B13" s="15" t="s">
+        <v>245</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -9430,219 +9455,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B13:H13"/>
-    <mergeCell ref="B14:H14"/>
-    <mergeCell ref="B15:H15"/>
-    <mergeCell ref="B7:H7"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:H12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0310F28-66FE-4D54-A492-88DB8FE0D9B6}">
-  <dimension ref="A2:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="4">
-        <v>45811</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="4">
-        <v>45796</v>
-      </c>
-      <c r="G3" s="4">
-        <v>45816</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9652,12 +9465,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -9666,7 +9479,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9692,16 +9505,16 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5078C0-5139-439A-B0C1-8B68B1EA704E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0310F28-66FE-4D54-A492-88DB8FE0D9B6}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9727,15 +9540,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -9745,18 +9558,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45877</v>
+        <v>45861</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -9765,12 +9578,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -9779,12 +9592,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -9793,12 +9606,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -9807,11 +9620,11 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -9819,12 +9632,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>258</v>
+        <v>114</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -9833,12 +9646,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>257</v>
+      <c r="B13" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -9847,7 +9660,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -9857,12 +9670,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -9871,7 +9684,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -9897,16 +9710,16 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9768D7-F2DF-4675-A3A8-40F5FAEEE65E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5078C0-5139-439A-B0C1-8B68B1EA704E}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -9932,15 +9745,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -9950,18 +9763,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45969</v>
+        <v>45861</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -9970,12 +9783,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -9984,12 +9797,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -9998,12 +9811,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10012,11 +9825,11 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -10024,11 +9837,13 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="13" t="s">
+        <v>258</v>
+      </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -10036,12 +9851,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>264</v>
+      <c r="B13" s="15" t="s">
+        <v>257</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10050,7 +9865,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10060,12 +9875,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10074,7 +9889,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10100,16 +9915,16 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C22B7E-2436-47C1-B5C8-AC4F1534DD8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9768D7-F2DF-4675-A3A8-40F5FAEEE65E}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10135,15 +9950,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -10153,18 +9968,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45969</v>
+        <v>45861</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10173,12 +9988,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10187,12 +10002,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10201,12 +10016,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10215,7 +10030,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -10227,13 +10042,11 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>270</v>
-      </c>
+      <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
@@ -10241,12 +10054,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>271</v>
+      <c r="B13" s="15" t="s">
+        <v>264</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10255,7 +10068,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10265,12 +10078,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10279,7 +10092,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10305,16 +10118,16 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E808D06-4984-4532-837A-7B298F1D3161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C22B7E-2436-47C1-B5C8-AC4F1534DD8C}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10340,15 +10153,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -10358,18 +10171,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45969</v>
+        <v>45861</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10378,12 +10191,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10392,12 +10205,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10406,12 +10219,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10420,7 +10233,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -10432,12 +10245,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10446,12 +10259,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>278</v>
+      <c r="B13" s="15" t="s">
+        <v>271</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10460,7 +10273,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10470,12 +10283,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10484,7 +10297,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10510,16 +10323,16 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E808D06-4984-4532-837A-7B298F1D3161}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10545,15 +10358,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -10563,18 +10376,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45969</v>
+        <v>45861</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10583,12 +10396,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10597,12 +10410,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10611,12 +10424,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10625,7 +10438,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -10637,12 +10450,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10651,12 +10464,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>285</v>
+      <c r="B13" s="15" t="s">
+        <v>278</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10665,7 +10478,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10675,12 +10488,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10689,7 +10502,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10715,16 +10528,16 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395C93E1-35E4-409D-B09F-F06C48E3B654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680404EE-B30A-40B1-AF09-832AAE61BBFC}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10750,15 +10563,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -10768,18 +10581,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45969</v>
+        <v>45877</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>287</v>
+      <c r="B7" s="13" t="s">
+        <v>280</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10788,12 +10601,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>286</v>
+      <c r="B8" s="13" t="s">
+        <v>281</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -10802,12 +10615,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>288</v>
+      <c r="B9" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -10816,12 +10629,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>289</v>
+      <c r="B10" s="13" t="s">
+        <v>283</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -10830,13 +10643,11 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>290</v>
-      </c>
+      <c r="B11" s="13"/>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
@@ -10844,12 +10655,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -10858,12 +10669,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>292</v>
+      <c r="B13" s="15" t="s">
+        <v>285</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -10872,7 +10683,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -10882,12 +10693,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -10896,7 +10707,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -10922,16 +10733,16 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395C93E1-35E4-409D-B09F-F06C48E3B654}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -10957,15 +10768,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -10975,18 +10786,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45969</v>
+        <v>45877</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>212</v>
+      <c r="B7" s="15" t="s">
+        <v>287</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -10995,12 +10806,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>213</v>
+      <c r="B8" s="15" t="s">
+        <v>286</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11009,12 +10820,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>214</v>
+      <c r="B9" s="15" t="s">
+        <v>288</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11023,12 +10834,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>215</v>
+      <c r="B10" s="15" t="s">
+        <v>289</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11037,12 +10848,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>216</v>
+      <c r="B11" s="15" t="s">
+        <v>290</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11051,12 +10862,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>217</v>
+        <v>291</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11065,12 +10876,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>218</v>
+      <c r="B13" s="15" t="s">
+        <v>292</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11079,11 +10890,9 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="13" t="s">
-        <v>219</v>
-      </c>
+      <c r="B14" s="13"/>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
       <c r="E14" s="13"/>
@@ -11091,12 +10900,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>220</v>
+        <v>293</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11105,7 +10914,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11131,16 +10940,16 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79921DD6-F724-4577-93F4-D76CE0DD6CD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8861A054-7840-4778-8D64-92E726F35744}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11166,15 +10975,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -11184,18 +10993,18 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45969</v>
+        <v>45877</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11204,12 +11013,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11218,12 +11027,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11232,12 +11041,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11246,12 +11055,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>208</v>
+      <c r="B11" s="15" t="s">
+        <v>216</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11260,12 +11069,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11274,12 +11083,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11288,10 +11097,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11300,12 +11109,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="15">
-        <v>1360</v>
+      <c r="B15" s="13" t="s">
+        <v>220</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11314,7 +11123,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11340,16 +11149,16 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB129884-1B95-4E82-8C9B-7DC398AC4731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79921DD6-F724-4577-93F4-D76CE0DD6CD9}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11375,38 +11184,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>195</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45969</v>
+        <v>45877</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11415,12 +11222,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11429,12 +11236,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11443,12 +11250,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11457,12 +11264,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -11471,12 +11278,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11485,12 +11292,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11499,10 +11306,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11511,12 +11318,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="15">
-        <v>630</v>
+      <c r="B15" s="14">
+        <v>1360</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11525,7 +11332,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11551,19 +11358,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7612F-5231-4C98-910F-5576955553DB}">
-  <dimension ref="A2:I18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46B7E720-EBBA-4D65-A776-85CAAE60A77B}">
+  <dimension ref="A2:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11589,17 +11399,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>2</v>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="3"/>
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" s="4">
-        <f>DATE(2025,6,3)</f>
-        <v>45811</v>
+        <f>DATE(2025,5,28)</f>
+        <v>45805</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>57</v>
@@ -11608,8 +11420,7 @@
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <f>DATE(2025,6,3)</f>
-        <v>45811</v>
+        <v>45880</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>41</v>
@@ -11618,22 +11429,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11642,12 +11453,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11656,12 +11467,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11670,12 +11481,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11684,7 +11495,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -11698,7 +11509,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -11712,12 +11523,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11726,10 +11537,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11738,12 +11549,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11752,7 +11563,223 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B13:H13"/>
+    <mergeCell ref="B14:H14"/>
+    <mergeCell ref="B15:H15"/>
+    <mergeCell ref="B7:H7"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:H12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB129884-1B95-4E82-8C9B-7DC398AC4731}">
+  <dimension ref="A2:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="4">
+        <v>45811</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" s="4">
+        <v>45796</v>
+      </c>
+      <c r="G3" s="4">
+        <v>45877</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="14">
+        <v>630</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11778,23 +11805,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98783C3C-C8D1-455F-9C2C-593A09FCC4F7}">
-  <dimension ref="A2:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC7612F-5231-4C98-910F-5576955553DB}">
+  <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -11820,38 +11843,51 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="4">
+        <f>DATE(2025,6,3)</f>
         <v>45811</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
       <c r="G3" s="4">
-        <v>45880</v>
+        <f>DATE(2025,6,3)</f>
+        <v>45811</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -11860,12 +11896,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -11874,12 +11910,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -11888,12 +11924,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -11902,7 +11938,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -11916,12 +11952,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -11930,12 +11966,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -11944,10 +11980,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -11956,12 +11992,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -11970,7 +12006,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -11996,22 +12032,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E409BCC-ED1C-445E-8955-238321CDE218}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98783C3C-C8D1-455F-9C2C-593A09FCC4F7}">
   <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:H15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="13.7265625" customWidth="1"/>
-    <col min="3" max="3" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -12037,20 +12074,22 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
@@ -12061,12 +12100,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -12075,12 +12114,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -12089,12 +12128,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -12103,12 +12142,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -12117,12 +12156,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -12131,12 +12170,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -12145,12 +12184,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -12159,10 +12198,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -12171,12 +12210,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -12185,7 +12224,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -12211,16 +12250,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F84F38-9AB4-4E34-812B-544C9CFA1AB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E409BCC-ED1C-445E-8955-238321CDE218}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -12246,15 +12291,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -12270,12 +12315,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>125</v>
+      <c r="B7" s="13" t="s">
+        <v>109</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -12284,12 +12329,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -12298,12 +12343,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -12312,12 +12357,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -12326,12 +12371,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -12340,12 +12385,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -12354,12 +12399,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -12368,10 +12413,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -12380,12 +12425,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="15">
-        <v>300</v>
+      <c r="B15" s="13" t="s">
+        <v>117</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -12394,7 +12439,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -12427,9 +12472,9 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -12455,7 +12500,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -12479,7 +12524,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
@@ -12493,7 +12538,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
@@ -12507,7 +12552,7 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
@@ -12521,7 +12566,7 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
@@ -12535,7 +12580,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
@@ -12549,7 +12594,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
@@ -12563,11 +12608,11 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="13"/>
@@ -12577,7 +12622,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>124</v>
@@ -12589,11 +12634,11 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>500</v>
       </c>
       <c r="C15" s="13"/>
@@ -12603,7 +12648,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -12629,19 +12674,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5136AC-4FBB-4E45-A781-0F794BA84F25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F84F38-9AB4-4E34-812B-544C9CFA1AB6}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="7" max="7" width="19.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -12667,15 +12709,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
@@ -12684,19 +12726,19 @@
       <c r="F3" s="4">
         <v>45796</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>294</v>
+      <c r="G3" s="4">
+        <v>45880</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>133</v>
+      <c r="B7" s="15" t="s">
+        <v>125</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -12705,12 +12747,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -12719,12 +12761,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -12733,12 +12775,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -12747,12 +12789,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -12761,12 +12803,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -12775,12 +12817,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -12789,10 +12831,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -12801,12 +12843,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>141</v>
+      <c r="B15" s="14">
+        <v>300</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -12815,7 +12857,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -12841,16 +12883,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EA59EA-F891-41D6-B791-CCCE95DA6C21}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5136AC-4FBB-4E45-A781-0F794BA84F25}">
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -12876,36 +12922,38 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D3" s="4">
         <v>45811</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="F3" s="4">
         <v>45796</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>295</v>
+      <c r="G3" s="4">
+        <v>45855</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="13"/>
@@ -12914,12 +12962,12 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -12928,12 +12976,12 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -12942,12 +12990,12 @@
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -12956,12 +13004,12 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -12970,12 +13018,12 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -12984,12 +13032,12 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -12998,10 +13046,10 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -13010,12 +13058,12 @@
       <c r="G14" s="13"/>
       <c r="H14" s="13"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -13024,7 +13072,7 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
